--- a/Faa_neew/p10-faa-0ms.xlsx
+++ b/Faa_neew/p10-faa-0ms.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\imMens interaction logs\annotated\Faa-0ms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\imMens Learning\Faa_neew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A6C925-BF3D-46C7-856D-2E0B5FC20F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C2E405-3A44-4BBC-9967-0DA8E6444A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet(2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="161">
   <si>
     <t>proposition</t>
   </si>
@@ -499,6 +500,15 @@
   </si>
   <si>
     <t>Reward</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>steer</t>
+  </si>
+  <si>
+    <t>explanation</t>
   </si>
 </sst>
 </file>
@@ -779,7 +789,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4031,878 +4041,5382 @@
     <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="128" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182CE779-FF1A-40B5-A012-FC549B0BB130}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K1000"/>
+  <sheetViews>
+    <sheetView topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="86.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="3" customWidth="1"/>
+    <col min="3" max="5" width="14.140625" style="3" customWidth="1"/>
+    <col min="6" max="9" width="9.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" style="3" customWidth="1"/>
+    <col min="11" max="29" width="17.28515625" style="3" customWidth="1"/>
+    <col min="30" max="16384" width="14.42578125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2.2731481481481481E-2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2.2777777777777779E-2</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2.2847222222222224E-2</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2.2893518518518518E-2</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2.3009259259259261E-2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2.3159722222222224E-2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2.3240740740740742E-2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2.3252314814814816E-2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2.3599537037037037E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2.3831018518518519E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2.3865740740740739E-2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2.3923611111111111E-2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2.3981481481481482E-2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2.3993055555555556E-2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2.4074074074074074E-2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2.4097222222222221E-2</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2.4131944444444445E-2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="4">
+        <v>2.4259259259259258E-2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>2.4328703703703703E-2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>2.4409722222222222E-2</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2.4467592592592593E-2</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2.4537037037037038E-2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="4">
+        <v>2.4594907407407409E-2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4">
+        <v>2.462962962962963E-2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="I26" s="4">
+        <v>2.4710648148148148E-2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="4">
+        <v>2.476851851851852E-2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4">
+        <v>2.480324074074074E-2</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2</v>
+      </c>
+      <c r="I29" s="4">
+        <v>2.4861111111111112E-2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="I30" s="4">
+        <v>2.4872685185185185E-2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4">
+        <v>2.494212962962963E-2</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
+      <c r="I32" s="4">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="4">
+        <v>2.5046296296296296E-2</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="4">
+        <v>2.5231481481481483E-2</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="4">
+        <v>2.5312500000000002E-2</v>
+      </c>
+      <c r="J35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I36" s="4">
+        <v>2.5451388888888888E-2</v>
+      </c>
+      <c r="J36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>2.5555555555555557E-2</v>
+      </c>
+      <c r="J37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2</v>
+      </c>
+      <c r="I38" s="4">
+        <v>2.5740740740740741E-2</v>
+      </c>
+      <c r="J38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2</v>
+      </c>
+      <c r="I39" s="4">
+        <v>2.5810185185185186E-2</v>
+      </c>
+      <c r="J39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="4">
+        <v>2.5949074074074076E-2</v>
+      </c>
+      <c r="J40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="4">
+        <v>2.6064814814814815E-2</v>
+      </c>
+      <c r="J41" s="2">
+        <v>3</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>2.6342592592592591E-2</v>
+      </c>
+      <c r="J42" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="I43" s="4">
+        <v>2.6504629629629628E-2</v>
+      </c>
+      <c r="J43" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2</v>
+      </c>
+      <c r="I44" s="4">
+        <v>2.6631944444444444E-2</v>
+      </c>
+      <c r="J44" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="4">
+        <v>2.6956018518518518E-2</v>
+      </c>
+      <c r="J45" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="I46" s="4">
+        <v>2.7071759259259261E-2</v>
+      </c>
+      <c r="J46" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="1">
+        <v>0</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I47" s="4">
+        <v>2.7152777777777779E-2</v>
+      </c>
+      <c r="J47" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0</v>
+      </c>
+      <c r="I48" s="4">
+        <v>2.7314814814814816E-2</v>
+      </c>
+      <c r="J48" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1">
+        <v>2</v>
+      </c>
+      <c r="I49" s="4">
+        <v>2.7418981481481482E-2</v>
+      </c>
+      <c r="J49" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2</v>
+      </c>
+      <c r="I50" s="4">
+        <v>2.7719907407407408E-2</v>
+      </c>
+      <c r="J50" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1">
+        <v>0</v>
+      </c>
+      <c r="I51" s="4">
+        <v>2.7997685185185184E-2</v>
+      </c>
+      <c r="J51" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="4">
+        <v>2.8055555555555556E-2</v>
+      </c>
+      <c r="J52" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="1">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="I53" s="4">
+        <v>2.8344907407407409E-2</v>
+      </c>
+      <c r="J53" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>2</v>
+      </c>
+      <c r="I54" s="4">
+        <v>2.8483796296296295E-2</v>
+      </c>
+      <c r="J54" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1">
+        <v>2</v>
+      </c>
+      <c r="I55" s="4">
+        <v>2.8518518518518519E-2</v>
+      </c>
+      <c r="J55" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1">
+        <v>1</v>
+      </c>
+      <c r="I56" s="4">
+        <v>2.8680555555555556E-2</v>
+      </c>
+      <c r="J56" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="4">
+        <v>2.8796296296296296E-2</v>
+      </c>
+      <c r="J57" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1">
+        <v>2</v>
+      </c>
+      <c r="I58" s="4">
+        <v>2.8900462962962965E-2</v>
+      </c>
+      <c r="J58" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2</v>
+      </c>
+      <c r="I59" s="4">
+        <v>2.9074074074074075E-2</v>
+      </c>
+      <c r="J59" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="4">
+        <v>2.9189814814814814E-2</v>
+      </c>
+      <c r="J60" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1">
+        <v>2</v>
+      </c>
+      <c r="I61" s="4">
+        <v>2.929398148148148E-2</v>
+      </c>
+      <c r="J61" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1">
+        <v>2</v>
+      </c>
+      <c r="I62" s="4">
+        <v>2.9363425925925925E-2</v>
+      </c>
+      <c r="J62" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="4">
+        <v>2.9479166666666667E-2</v>
+      </c>
+      <c r="J63" s="2">
+        <v>3</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B64" s="1">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2</v>
+      </c>
+      <c r="I64" s="4">
+        <v>2.9849537037037036E-2</v>
+      </c>
+      <c r="J64" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1">
+        <v>2</v>
+      </c>
+      <c r="I65" s="4">
+        <v>2.9976851851851852E-2</v>
+      </c>
+      <c r="J65" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" s="1">
+        <v>1</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="1">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1">
+        <v>2</v>
+      </c>
+      <c r="I66" s="4">
+        <v>3.0081018518518517E-2</v>
+      </c>
+      <c r="J66" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="4">
+        <v>3.0300925925925926E-2</v>
+      </c>
+      <c r="J67" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>2</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I68" s="4">
+        <v>3.0416666666666668E-2</v>
+      </c>
+      <c r="J68" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" s="1">
+        <v>1</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>2</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I69" s="4">
+        <v>3.0567129629629628E-2</v>
+      </c>
+      <c r="J69" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="4">
+        <v>3.0763888888888889E-2</v>
+      </c>
+      <c r="J70" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F71" s="1">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="4">
+        <v>3.0902777777777779E-2</v>
+      </c>
+      <c r="J71" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>2</v>
+      </c>
+      <c r="I72" s="4">
+        <v>3.0949074074074073E-2</v>
+      </c>
+      <c r="J72" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="4">
+        <v>3.0960648148148147E-2</v>
+      </c>
+      <c r="J73" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F74" s="1">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="I74" s="4">
+        <v>3.1203703703703702E-2</v>
+      </c>
+      <c r="J74" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="4">
+        <v>3.1342592592592596E-2</v>
+      </c>
+      <c r="J75" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1">
+        <v>2</v>
+      </c>
+      <c r="I76" s="4">
+        <v>3.1712962962962964E-2</v>
+      </c>
+      <c r="J76" s="2">
+        <v>4</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1">
+        <v>2</v>
+      </c>
+      <c r="I77" s="4">
+        <v>3.1898148148148148E-2</v>
+      </c>
+      <c r="J77" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="1">
+        <v>1</v>
+      </c>
+      <c r="G78" s="1">
+        <v>2</v>
+      </c>
+      <c r="I78" s="4">
+        <v>3.2071759259259258E-2</v>
+      </c>
+      <c r="J78" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="1">
+        <v>1</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F79" s="1">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1">
+        <v>2</v>
+      </c>
+      <c r="I79" s="4">
+        <v>3.2245370370370369E-2</v>
+      </c>
+      <c r="J79" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="1">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1">
+        <v>2</v>
+      </c>
+      <c r="I80" s="4">
+        <v>3.2280092592592589E-2</v>
+      </c>
+      <c r="J80" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0</v>
+      </c>
+      <c r="G81" s="1">
+        <v>2</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I81" s="4">
+        <v>3.2418981481481479E-2</v>
+      </c>
+      <c r="J81" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1</v>
+      </c>
+      <c r="G82" s="1">
+        <v>2</v>
+      </c>
+      <c r="I82" s="4">
+        <v>3.2523148148148148E-2</v>
+      </c>
+      <c r="J82" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>2</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I83" s="4">
+        <v>3.2673611111111112E-2</v>
+      </c>
+      <c r="J83" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="1">
+        <v>1</v>
+      </c>
+      <c r="G84" s="1">
+        <v>2</v>
+      </c>
+      <c r="I84" s="4">
+        <v>3.2743055555555553E-2</v>
+      </c>
+      <c r="J84" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>2</v>
+      </c>
+      <c r="I85" s="4">
+        <v>3.2800925925925928E-2</v>
+      </c>
+      <c r="J85" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="1">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1</v>
+      </c>
+      <c r="I86" s="4">
+        <v>3.3067129629629627E-2</v>
+      </c>
+      <c r="J86" s="2">
+        <v>5</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="I87" s="4">
+        <v>3.3263888888888891E-2</v>
+      </c>
+      <c r="J87" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="I88" s="4">
+        <v>3.349537037037037E-2</v>
+      </c>
+      <c r="J88" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="1">
+        <v>1</v>
+      </c>
+      <c r="G89" s="1">
+        <v>2</v>
+      </c>
+      <c r="I89" s="4">
+        <v>3.3611111111111112E-2</v>
+      </c>
+      <c r="J89" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B90" s="1">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1</v>
+      </c>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="4">
+        <v>3.3819444444444444E-2</v>
+      </c>
+      <c r="J90" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" s="1">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1</v>
+      </c>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="I91" s="4">
+        <v>3.3912037037037039E-2</v>
+      </c>
+      <c r="J91" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1</v>
+      </c>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="I92" s="4">
+        <v>3.3958333333333333E-2</v>
+      </c>
+      <c r="J92" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I93" s="4">
+        <v>3.4062500000000002E-2</v>
+      </c>
+      <c r="J93" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F94" s="1">
+        <v>1</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="I94" s="4">
+        <v>3.4212962962962966E-2</v>
+      </c>
+      <c r="J94" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" s="1">
+        <v>1</v>
+      </c>
+      <c r="G95" s="1">
+        <v>2</v>
+      </c>
+      <c r="I95" s="4">
+        <v>3.4421296296296297E-2</v>
+      </c>
+      <c r="J95" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B96" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1</v>
+      </c>
+      <c r="G96" s="1">
+        <v>2</v>
+      </c>
+      <c r="I96" s="4">
+        <v>3.5046296296296298E-2</v>
+      </c>
+      <c r="J96" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" s="1">
+        <v>2</v>
+      </c>
+      <c r="I97" s="4">
+        <v>3.5324074074074077E-2</v>
+      </c>
+      <c r="J97" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B98" s="1">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="I98" s="4">
+        <v>3.5439814814814813E-2</v>
+      </c>
+      <c r="J98" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99" s="1">
+        <v>1</v>
+      </c>
+      <c r="G99" s="1">
+        <v>1</v>
+      </c>
+      <c r="I99" s="4">
+        <v>3.560185185185185E-2</v>
+      </c>
+      <c r="J99" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1</v>
+      </c>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="I100" s="4">
+        <v>3.5902777777777777E-2</v>
+      </c>
+      <c r="J100" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B101" s="1">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1</v>
+      </c>
+      <c r="I101" s="4">
+        <v>3.5983796296296298E-2</v>
+      </c>
+      <c r="J101" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B102" s="1">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1</v>
+      </c>
+      <c r="I102" s="4">
+        <v>3.6377314814814814E-2</v>
+      </c>
+      <c r="J102" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B103" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="1">
+        <v>1</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1</v>
+      </c>
+      <c r="I103" s="4">
+        <v>3.6562499999999998E-2</v>
+      </c>
+      <c r="J103" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B104" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1</v>
+      </c>
+      <c r="I104" s="4">
+        <v>3.6770833333333336E-2</v>
+      </c>
+      <c r="J104" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="1">
+        <v>1</v>
+      </c>
+      <c r="G105" s="1">
+        <v>2</v>
+      </c>
+      <c r="I105" s="4">
+        <v>3.6898148148148145E-2</v>
+      </c>
+      <c r="J105" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B106" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="1">
+        <v>1</v>
+      </c>
+      <c r="G106" s="1">
+        <v>2</v>
+      </c>
+      <c r="I106" s="4">
+        <v>3.6990740740740741E-2</v>
+      </c>
+      <c r="J106" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B107" s="1">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F107" s="1">
+        <v>1</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0</v>
+      </c>
+      <c r="I107" s="4">
+        <v>3.7164351851851851E-2</v>
+      </c>
+      <c r="J107" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B108" s="1">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0</v>
+      </c>
+      <c r="G108" s="1">
+        <v>0</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I108" s="4">
+        <v>3.7245370370370373E-2</v>
+      </c>
+      <c r="J108" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B109" s="1">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="1">
+        <v>1</v>
+      </c>
+      <c r="G109" s="1">
+        <v>1</v>
+      </c>
+      <c r="I109" s="4">
+        <v>3.7337962962962962E-2</v>
+      </c>
+      <c r="J109" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B110" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1</v>
+      </c>
+      <c r="I110" s="4">
+        <v>3.7662037037037036E-2</v>
+      </c>
+      <c r="J110" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B111" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111" s="1">
+        <v>1</v>
+      </c>
+      <c r="G111" s="1">
+        <v>2</v>
+      </c>
+      <c r="I111" s="4">
+        <v>3.7708333333333337E-2</v>
+      </c>
+      <c r="J111" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B112" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0</v>
+      </c>
+      <c r="G112" s="1">
+        <v>2</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I112" s="4">
+        <v>3.7928240740740742E-2</v>
+      </c>
+      <c r="J112" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B113" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1</v>
+      </c>
+      <c r="I113" s="4">
+        <v>3.8090277777777778E-2</v>
+      </c>
+      <c r="J113" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B114" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1</v>
+      </c>
+      <c r="G114" s="1">
+        <v>2</v>
+      </c>
+      <c r="I114" s="4">
+        <v>3.8240740740740742E-2</v>
+      </c>
+      <c r="J114" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B115" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0</v>
+      </c>
+      <c r="G115" s="1">
+        <v>1</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="I115" s="4">
+        <v>3.8379629629629632E-2</v>
+      </c>
+      <c r="J115" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B116" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F116" s="1">
+        <v>1</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1</v>
+      </c>
+      <c r="I116" s="4">
+        <v>3.8796296296296294E-2</v>
+      </c>
+      <c r="J116" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B117" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1</v>
+      </c>
+      <c r="G117" s="1">
+        <v>2</v>
+      </c>
+      <c r="I117" s="4">
+        <v>3.8912037037037037E-2</v>
+      </c>
+      <c r="J117" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B118" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1</v>
+      </c>
+      <c r="I118" s="4">
+        <v>3.90625E-2</v>
+      </c>
+      <c r="J118" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B119" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F119" s="1">
+        <v>0</v>
+      </c>
+      <c r="G119" s="1">
+        <v>2</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I119" s="4">
+        <v>3.9363425925925927E-2</v>
+      </c>
+      <c r="J119" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B120" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120" s="1">
+        <v>1</v>
+      </c>
+      <c r="G120" s="1">
+        <v>2</v>
+      </c>
+      <c r="I120" s="4">
+        <v>3.9548611111111111E-2</v>
+      </c>
+      <c r="J120" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B121" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F121" s="1">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1">
+        <v>2</v>
+      </c>
+      <c r="I121" s="4">
+        <v>3.9768518518518516E-2</v>
+      </c>
+      <c r="J121" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B122" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" s="1">
+        <v>0</v>
+      </c>
+      <c r="G122" s="1">
+        <v>2</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I122" s="4">
+        <v>3.9849537037037037E-2</v>
+      </c>
+      <c r="J122" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Faa_neew/p10-faa-0ms.xlsx
+++ b/Faa_neew/p10-faa-0ms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\imMens Learning\Faa_neew\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C2E405-3A44-4BBC-9967-0DA8E6444A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57826148-5C8D-466B-8CC6-3E3DD55C9B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -788,8 +788,8 @@
   </sheetPr>
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4926,8 +4926,8 @@
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView tabSelected="1" zoomScale="102" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
